--- a/element_info_datas/elment_data.xlsx
+++ b/element_info_datas/elment_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>元素变量名</t>
   </si>
@@ -87,7 +87,34 @@
     <t>产品菜单</t>
   </si>
   <si>
-    <t>//i[@class="icon icon-product"]'</t>
+    <t>//i[@class="icon icon-product"]</t>
+  </si>
+  <si>
+    <t>exit_button</t>
+  </si>
+  <si>
+    <t>退出按钮</t>
+  </si>
+  <si>
+    <t>//i[@class="icon icon-exit"]</t>
+  </si>
+  <si>
+    <t>appIframe-my</t>
+  </si>
+  <si>
+    <t>跳转页面</t>
+  </si>
+  <si>
+    <t>//iframe[@id="appIframe-my"]</t>
+  </si>
+  <si>
+    <t>user_menu</t>
+  </si>
+  <si>
+    <t>用户菜单</t>
+  </si>
+  <si>
+    <t>//a[@class="dropdown-toggle"]/div[@class="avatar has-text avatar-circle"]</t>
   </si>
 </sst>
 </file>
@@ -95,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -117,9 +144,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,16 +219,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,8 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,36 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,54 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +296,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,13 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,79 +434,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,25 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,37 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,11 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +525,39 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,36 +592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -566,15 +602,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,10 +610,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +622,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -740,9 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1094,7 +1118,7 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1411,8 +1435,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="D8 E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1476,7 +1500,7 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="1">
@@ -1484,28 +1508,64 @@
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4"/>

--- a/element_info_datas/elment_data.xlsx
+++ b/element_info_datas/elment_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -122,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,7 +144,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +186,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -164,8 +209,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,29 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -211,36 +272,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -255,37 +286,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,181 +296,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,9 +522,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,7 +535,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,8 +573,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,32 +602,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,145 +610,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,8 +1118,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1435,8 +1435,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="D8 E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/element_info_datas/elment_data.xlsx
+++ b/element_info_datas/elment_data.xlsx
@@ -122,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,7 +144,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,8 +186,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,30 +225,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,79 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,43 +296,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,37 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,85 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,35 +522,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,8 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,8 +556,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +576,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,145 +610,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
